--- a/R/UI_and_SERVER/CLIMINET/Données/Geo/REGIONs/DevLevels/LDC_LLDC_SIDS/CCMN_RDATA_LDC_LLDC_SIDS.xlsx
+++ b/R/UI_and_SERVER/CLIMINET/Données/Geo/REGIONs/DevLevels/LDC_LLDC_SIDS/CCMN_RDATA_LDC_LLDC_SIDS.xlsx
@@ -1,124 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Desktop\R\UI_and_SERVER\CLIMINET\Données\Geo\REGIONs\DevLevels\LDC_LLDC_SIDS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08FDEFC-A509-4505-8C2F-60C97DAB9728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1416" yWindow="1284" windowWidth="21264" windowHeight="10824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLRCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_of_LARGEST_POLYGON_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centroid_of_LARGEST_POLYGON_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_Centroid_X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBOX_Centroid_Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDC | LLDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;LDC | LLDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#FF9900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDC | SIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;LDC | SIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#72C02C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least Developed Countries* (LDC*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;Least Developed Countries* (LDC*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#F1C40F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Locked Developing Countries* (LLDC*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;Land Locked Developing Countries* (LLDC*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#E74C3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Countries/Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;Other Countries/Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques and Global Administrative Areas (GADM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small Island Developing States* (SIDS*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;b&gt;Development Level: &lt;/b&gt;Small Island Developing States* (SIDS*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#5B92E5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>LabelR</t>
+  </si>
+  <si>
+    <t>CLRCode</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>BBOX_AREA</t>
+  </si>
+  <si>
+    <t>Centroid_X</t>
+  </si>
+  <si>
+    <t>Centroid_Y</t>
+  </si>
+  <si>
+    <t>Centroid_of_LARGEST_POLYGON_X</t>
+  </si>
+  <si>
+    <t>Centroid_of_LARGEST_POLYGON_Y</t>
+  </si>
+  <si>
+    <t>BBOX_Centroid_X</t>
+  </si>
+  <si>
+    <t>BBOX_Centroid_Y</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>LDC | LLDC</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;LDC | LLDC</t>
+  </si>
+  <si>
+    <t>#FF9900</t>
+  </si>
+  <si>
+    <t>World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques</t>
+  </si>
+  <si>
+    <t>LDC | SIDS</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;LDC | SIDS</t>
+  </si>
+  <si>
+    <t>#72C02C</t>
+  </si>
+  <si>
+    <t>Least Developed Countries* (LDC*)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;Least Developed Countries* (LDC*)</t>
+  </si>
+  <si>
+    <t>#F1C40F</t>
+  </si>
+  <si>
+    <t>#E74C3C</t>
+  </si>
+  <si>
+    <t>Other Countries/Territories</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;Other Countries/Territories</t>
+  </si>
+  <si>
+    <t>#999999</t>
+  </si>
+  <si>
+    <t>World Health OrGanization (WHO) - Countries and Fondation Jean-Jacques Laffont - Toulouse Sciences Economiques and Global Administrative Areas (GADM)</t>
+  </si>
+  <si>
+    <t>Small Island Developing States* (SIDS*)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;Small Island Developing States* (SIDS*)</t>
+  </si>
+  <si>
+    <t>#5B92E5</t>
+  </si>
+  <si>
+    <t>Land-Locked Developing Countries* (LLDC*)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Development Level: &lt;/b&gt;Land-Locked Developing Countries* (LLDC*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,6 +161,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,14 +451,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,11 +501,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1640</v>
       </c>
       <c r="C2" t="s">
@@ -496,39 +514,39 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="n">
-        <v>8631195.02975</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>8631195.0297500007</v>
+      </c>
+      <c r="F2">
         <v>125410949.70182</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>24.6746831166944</v>
       </c>
-      <c r="H2" t="n">
-        <v>12.9268785769578</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.6746831166898</v>
-      </c>
-      <c r="J2" t="n">
-        <v>12.9268785769537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.7252502440001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.58738159044552</v>
+      <c r="H2">
+        <v>12.926878576957799</v>
+      </c>
+      <c r="I2">
+        <v>24.674683116689799</v>
+      </c>
+      <c r="J2">
+        <v>12.926878576953699</v>
+      </c>
+      <c r="K2">
+        <v>47.725250244000101</v>
+      </c>
+      <c r="L2">
+        <v>3.5873815904455202</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1641</v>
       </c>
       <c r="C3" t="s">
@@ -537,39 +555,39 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="n">
-        <v>121825.987</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3">
+        <v>121825.98699999999</v>
+      </c>
+      <c r="F3">
         <v>2730223.38142</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-126.829553658592</v>
       </c>
-      <c r="H3" t="n">
-        <v>28.390049837753</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-14.9282627606098</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.0472987431335</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-177.335298</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.0775764246067491</v>
+      <c r="H3">
+        <v>28.390049837753001</v>
+      </c>
+      <c r="I3">
+        <v>-14.928262760609799</v>
+      </c>
+      <c r="J3">
+        <v>12.047298743133499</v>
+      </c>
+      <c r="K3">
+        <v>-177.33529799999999</v>
+      </c>
+      <c r="L3">
+        <v>-7.75764246067491E-2</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>942</v>
       </c>
       <c r="C4" t="s">
@@ -578,157 +596,156 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11822196.63466</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>118617027.88616</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>29.1568844719819</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.64911191993098</v>
-      </c>
-      <c r="I4" t="n">
-        <v>29.1571510334141</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.64916062389871</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45.0496826170001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.957635889102295</v>
+      <c r="H4">
+        <v>3.6491119199309798</v>
+      </c>
+      <c r="I4">
+        <v>29.157151033414099</v>
+      </c>
+      <c r="J4">
+        <v>3.6491606238987102</v>
+      </c>
+      <c r="K4">
+        <v>45.049682617000101</v>
+      </c>
+      <c r="L4">
+        <v>0.95763588910229502</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1638</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>1638</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8207436.73099</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5">
+        <v>8207436.7309900001</v>
+      </c>
+      <c r="F5">
         <v>232243550.39128</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>48.9563252399699</v>
       </c>
-      <c r="H5" t="n">
-        <v>41.4614135641915</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66.2205222312371</v>
-      </c>
-      <c r="J5" t="n">
-        <v>45.8668280521857</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-154.860534668</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.51105170969264</v>
+      <c r="H5">
+        <v>41.461413564191503</v>
+      </c>
+      <c r="I5">
+        <v>66.220522231237098</v>
+      </c>
+      <c r="J5">
+        <v>45.866828052185703</v>
+      </c>
+      <c r="K5">
+        <v>-154.86053466800001</v>
+      </c>
+      <c r="L5">
+        <v>2.5110517096926399</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>116943143.15162</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>26.367469637779699</v>
+      </c>
+      <c r="H6">
+        <v>63.233882103115</v>
+      </c>
+      <c r="I6">
+        <v>66.983269010692197</v>
+      </c>
+      <c r="J6">
+        <v>51.480099306244597</v>
+      </c>
+      <c r="K6">
+        <v>180</v>
+      </c>
+      <c r="L6">
+        <v>-0.22500561576339501</v>
+      </c>
+      <c r="M6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
-        <v>116943143.15162</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>26.3674696377797</v>
-      </c>
-      <c r="H6" t="n">
-        <v>63.233882103115</v>
-      </c>
-      <c r="I6" t="n">
-        <v>66.9832690106922</v>
-      </c>
-      <c r="J6" t="n">
-        <v>51.4800993062446</v>
-      </c>
-      <c r="K6" t="n">
-        <v>180</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-0.225005615763395</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="B7">
+        <v>1639</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="n">
-        <v>1639</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1128351.67489</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16.29841</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-130.258358506827</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.05514554303153</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="E7">
+        <v>1128351.6748899999</v>
+      </c>
+      <c r="F7">
+        <v>16.298410000000001</v>
+      </c>
+      <c r="G7">
+        <v>-130.25835850682699</v>
+      </c>
+      <c r="H7">
+        <v>8.0551455430315304</v>
+      </c>
+      <c r="I7">
         <v>144.251476540109</v>
       </c>
-      <c r="J7" t="n">
-        <v>-6.61326497035342</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7">
+        <v>-6.6132649703534199</v>
+      </c>
+      <c r="K7">
         <v>-179.999999999647</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>2.02348017725889</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>